--- a/classification/droptc/sentence/bert-base-uncased/freeze/14298463/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/freeze/14298463/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6450135707855225</v>
+        <v>0.9580467939376831</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8293840885162354</v>
+        <v>0.9966596364974976</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2897974848747253</v>
+        <v>0.6036863327026367</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8815392851829529</v>
+        <v>0.617341935634613</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6722919344902039</v>
+        <v>0.993524432182312</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3556876182556152</v>
+        <v>0.9057766795158386</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7393079996109009</v>
+        <v>0.9916101098060608</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6915557980537415</v>
+        <v>0.9945995807647705</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6483598947525024</v>
+        <v>0.9916101098060608</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5031487941741943</v>
+        <v>0.9398694038391113</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7774130702018738</v>
+        <v>0.9656357169151306</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7350569367408752</v>
+        <v>0.9701630473136902</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5002350211143494</v>
+        <v>0.9665268063545227</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5256114602088928</v>
+        <v>0.6592676043510437</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6008963584899902</v>
+        <v>0.8559462428092957</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8797651529312134</v>
+        <v>0.9667149186134338</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6812882423400879</v>
+        <v>0.593505859375</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5621849298477173</v>
+        <v>0.9929794669151306</v>
       </c>
     </row>
     <row r="20">
@@ -982,7 +982,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3656201660633087</v>
+        <v>0.9341838955879211</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6123195886611938</v>
+        <v>0.9879546165466309</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4095348119735718</v>
+        <v>0.9806806445121765</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4542745351791382</v>
+        <v>0.9657654762268066</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8778581619262695</v>
+        <v>0.9487735629081726</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6761002540588379</v>
+        <v>0.5090348720550537</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3307187557220459</v>
+        <v>0.3045138716697693</v>
       </c>
     </row>
     <row r="27">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4621773064136505</v>
+        <v>0.7872463464736938</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7741472125053406</v>
+        <v>0.9966596364974976</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9166198372840881</v>
+        <v>0.783942699432373</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8049327731132507</v>
+        <v>0.9401381015777588</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3688445389270782</v>
+        <v>0.9443328380584717</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8606773614883423</v>
+        <v>0.6523375511169434</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.821421205997467</v>
+        <v>0.6533869504928589</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5873163342475891</v>
+        <v>0.735135018825531</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8451100587844849</v>
+        <v>0.9432920813560486</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6351029276847839</v>
+        <v>0.9645577073097229</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.919101357460022</v>
+        <v>0.9055119156837463</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7444385886192322</v>
+        <v>0.8496328592300415</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5775991082191467</v>
+        <v>0.7547978162765503</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6664273738861084</v>
+        <v>0.4414550364017487</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8455494046211243</v>
+        <v>0.9794875979423523</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8920160531997681</v>
+        <v>0.7956066727638245</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6344174146652222</v>
+        <v>0.6945932507514954</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6486548781394958</v>
+        <v>0.9779126644134521</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4989014565944672</v>
+        <v>0.8552316427230835</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3656201660633087</v>
+        <v>0.8952625393867493</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6772149205207825</v>
+        <v>0.4106186032295227</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7191149592399597</v>
+        <v>0.9241671562194824</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4425497651100159</v>
+        <v>0.9971140623092651</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6376592516899109</v>
+        <v>0.8904683589935303</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6078792810440063</v>
+        <v>0.2950137853622437</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.478757232427597</v>
+        <v>0.9145112037658691</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9166198372840881</v>
+        <v>0.8904683589935303</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7096453905105591</v>
+        <v>0.5720906853675842</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.712225615978241</v>
+        <v>0.9902134537696838</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6496913433074951</v>
+        <v>0.998519241809845</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6057555079460144</v>
+        <v>0.9988731741905212</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.344635009765625</v>
+        <v>0.86829674243927</v>
       </c>
     </row>
     <row r="59">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6196649074554443</v>
+        <v>0.8980005979537964</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8801972270011902</v>
+        <v>0.9516550302505493</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7041766047477722</v>
+        <v>0.8890916109085083</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5878324508666992</v>
+        <v>0.9891953468322754</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.384568065404892</v>
+        <v>0.6990745067596436</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.425058901309967</v>
+        <v>0.383624255657196</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7677275538444519</v>
+        <v>0.8711150288581848</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6938062906265259</v>
+        <v>0.8711150288581848</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6078394055366516</v>
+        <v>0.5088309645652771</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4498123526573181</v>
+        <v>0.8711150288581848</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8878071308135986</v>
+        <v>0.5857570767402649</v>
       </c>
     </row>
     <row r="70">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3448340594768524</v>
+        <v>0.9690709710121155</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4683606922626495</v>
+        <v>0.4722833037376404</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7546140551567078</v>
+        <v>0.9724251627922058</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4617607593536377</v>
+        <v>0.9753894805908203</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5852346420288086</v>
+        <v>0.8764538168907166</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3687975108623505</v>
+        <v>0.6575096249580383</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9487485289573669</v>
+        <v>0.9753894805908203</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.739606499671936</v>
+        <v>0.9444606900215149</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7510088086128235</v>
+        <v>0.9753894805908203</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8920160531997681</v>
+        <v>0.9929013848304749</v>
       </c>
     </row>
     <row r="80">
@@ -2667,14 +2667,14 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3467051088809967</v>
+        <v>0.9118995666503906</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7405176758766174</v>
+        <v>0.6229308247566223</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8466536402702332</v>
+        <v>0.9118995666503906</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.6647071242332458</v>
+        <v>0.9509575963020325</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8920160531997681</v>
+        <v>0.9509575963020325</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8103193044662476</v>
+        <v>0.9927914142608643</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8939188718795776</v>
+        <v>0.716463029384613</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8282312750816345</v>
+        <v>0.8468608260154724</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6103461384773254</v>
+        <v>0.89988112449646</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.6797205209732056</v>
+        <v>0.9832099676132202</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5804898738861084</v>
+        <v>0.9596384167671204</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.7028546333312988</v>
+        <v>0.9630779027938843</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.7737599015235901</v>
+        <v>0.9670469164848328</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6806833744049072</v>
+        <v>0.9731590747833252</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6995447874069214</v>
+        <v>0.9776875376701355</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6345787644386292</v>
+        <v>0.9696252346038818</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6644909381866455</v>
+        <v>0.6016424298286438</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5977283716201782</v>
+        <v>0.3713099658489227</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6043825745582581</v>
+        <v>0.9841014742851257</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8201687335968018</v>
+        <v>0.3544546067714691</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7368530631065369</v>
+        <v>0.9512511491775513</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3270756900310516</v>
+        <v>0.9438136219978333</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5910042524337769</v>
+        <v>0.3158988058567047</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.743676483631134</v>
+        <v>0.9848825335502625</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6352072954177856</v>
+        <v>0.9319861531257629</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8559648394584656</v>
+        <v>0.9528593420982361</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7823377847671509</v>
+        <v>0.5800374150276184</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4966929256916046</v>
+        <v>0.5052803754806519</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6912418007850647</v>
+        <v>0.5888452529907227</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7772108912467957</v>
+        <v>0.6998497843742371</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5595079660415649</v>
+        <v>0.9966596364974976</v>
       </c>
     </row>
     <row r="111">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8920160531997681</v>
+        <v>0.4659241735935211</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.743676483631134</v>
+        <v>0.4945327043533325</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3707309365272522</v>
+        <v>0.9057258367538452</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.6085142493247986</v>
+        <v>0.7759714722633362</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.7205137014389038</v>
+        <v>0.3923264443874359</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7716092467308044</v>
+        <v>0.8502568602561951</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6519409418106079</v>
+        <v>0.9601955413818359</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.4278484582901001</v>
+        <v>0.5096095204353333</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6905950903892517</v>
+        <v>0.9376518726348877</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.3014845252037048</v>
+        <v>0.9966596364974976</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7095519304275513</v>
+        <v>0.94822758436203</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6284102201461792</v>
+        <v>0.9938294291496277</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.609915018081665</v>
+        <v>0.94822758436203</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6587722301483154</v>
+        <v>0.9938294291496277</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.6998122930526733</v>
+        <v>0.94822758436203</v>
       </c>
     </row>
     <row r="126">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3959,10 +3959,10 @@
         </is>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.3791929483413696</v>
+        <v>0.9989114999771118</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6123195886611938</v>
+        <v>0.6716907024383545</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.8263396024703979</v>
+        <v>0.9966596364974976</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5319743752479553</v>
+        <v>0.9593429565429688</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7693392038345337</v>
+        <v>0.924400269985199</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5618624091148376</v>
+        <v>0.9921695590019226</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7551604509353638</v>
+        <v>0.4641338586807251</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.5985008478164673</v>
+        <v>0.9938865303993225</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3842090368270874</v>
+        <v>0.5460187792778015</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8920160531997681</v>
+        <v>0.8552566766738892</v>
       </c>
     </row>
     <row r="136">
@@ -4235,14 +4235,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.7788168787956238</v>
+        <v>0.5006804466247559</v>
       </c>
     </row>
     <row r="137">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7868679761886597</v>
+        <v>0.9941971302032471</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7543511390686035</v>
+        <v>0.9375796914100647</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9273543357849121</v>
+        <v>0.9954233765602112</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4533747136592865</v>
+        <v>0.9661155939102173</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5655465126037598</v>
+        <v>0.8866608738899231</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.6981307864189148</v>
+        <v>0.9966596364974976</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6678659915924072</v>
+        <v>0.6632626056671143</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.8063477277755737</v>
+        <v>0.9887700080871582</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.7518137097358704</v>
+        <v>0.6632626056671143</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.8284499049186707</v>
+        <v>0.9724963903427124</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.384568065404892</v>
+        <v>0.5857570767402649</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.3678437173366547</v>
+        <v>0.9667513966560364</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8920160531997681</v>
+        <v>0.5666245222091675</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7580534219741821</v>
+        <v>0.3858114778995514</v>
       </c>
     </row>
     <row r="151">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.4561515152454376</v>
+        <v>0.9966596364974976</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4278484582901001</v>
+        <v>0.6491922736167908</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.4589353799819946</v>
+        <v>0.989493727684021</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.3259643912315369</v>
+        <v>0.7415809631347656</v>
       </c>
     </row>
     <row r="155">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.554451584815979</v>
+        <v>0.9805516004562378</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.7025737166404724</v>
+        <v>0.6697438955307007</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.6302070021629333</v>
+        <v>0.9952120780944824</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8547727465629578</v>
+        <v>0.9411119818687439</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.6880158185958862</v>
+        <v>0.9980818033218384</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.5171482563018799</v>
+        <v>0.8117324709892273</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6673327684402466</v>
+        <v>0.9046679735183716</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.4646474123001099</v>
+        <v>0.8665361404418945</v>
       </c>
     </row>
     <row r="163">
@@ -4991,14 +4991,14 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6944730281829834</v>
+        <v>0.4772413671016693</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.4498123526573181</v>
+        <v>0.7815659046173096</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.4278484582901001</v>
+        <v>0.9098097681999207</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.8323280811309814</v>
+        <v>0.9258770346641541</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.6483598947525024</v>
+        <v>0.3992312550544739</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9044894576072693</v>
+        <v>0.3898701965808868</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.7808523178100586</v>
+        <v>0.9966596364974976</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.6817403435707092</v>
+        <v>0.3992312550544739</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6559309959411621</v>
+        <v>0.4537084400653839</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8284918069839478</v>
+        <v>0.9966596364974976</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.8920160531997681</v>
+        <v>0.9498607516288757</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.7299185991287231</v>
+        <v>0.9571906328201294</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.8208818435668945</v>
+        <v>0.9498607516288757</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.6111443638801575</v>
+        <v>0.9498607516288757</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.4964189827442169</v>
+        <v>0.9571906328201294</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.3722399771213531</v>
+        <v>0.9978109002113342</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.8947531580924988</v>
+        <v>0.9964787364006042</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.7185183167457581</v>
+        <v>0.8511161804199219</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.7715226411819458</v>
+        <v>0.5643888711929321</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.6743736267089844</v>
+        <v>0.9836121201515198</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.4533747136592865</v>
+        <v>0.3975829482078552</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.7384441494941711</v>
+        <v>0.9838991165161133</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.463932991027832</v>
+        <v>0.8664394021034241</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5065587162971497</v>
+        <v>0.8875995874404907</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.8186822533607483</v>
+        <v>0.9618786573410034</v>
       </c>
     </row>
     <row r="188">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.4276363551616669</v>
+        <v>0.9748976230621338</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3688994646072388</v>
+        <v>0.8051248788833618</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.3678437173366547</v>
+        <v>0.8947980999946594</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5681365728378296</v>
+        <v>0.6128471493721008</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.2841463387012482</v>
+        <v>0.9440585970878601</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.7243778705596924</v>
+        <v>0.9777919054031372</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.5667881965637207</v>
+        <v>0.8599026203155518</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6887772083282471</v>
+        <v>0.526281476020813</v>
       </c>
     </row>
     <row r="196">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5919,10 +5919,10 @@
         </is>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.5942285656929016</v>
+        <v>0.9921836256980896</v>
       </c>
     </row>
     <row r="197">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5947,10 +5947,10 @@
         </is>
       </c>
       <c r="E197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.3678437173366547</v>
+        <v>0.9824168682098389</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.4338248074054718</v>
+        <v>0.9163557291030884</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.344635009765625</v>
+        <v>0.9919004440307617</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.8920160531997681</v>
+        <v>0.6648228764533997</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.6980833411216736</v>
+        <v>0.986441433429718</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.3688994646072388</v>
+        <v>0.9819471836090088</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8920160531997681</v>
+        <v>0.8459343314170837</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>SurroundingEnvironment</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.4450251162052155</v>
+        <v>0.3159333467483521</v>
       </c>
     </row>
     <row r="205">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="E205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.4203482270240784</v>
+        <v>0.5606762766838074</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.8815392851829529</v>
+        <v>0.9984599351882935</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4533747136592865</v>
+        <v>0.4880576431751251</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.6483598947525024</v>
+        <v>0.9921850562095642</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.5308558344841003</v>
+        <v>0.4697190225124359</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.8172990083694458</v>
+        <v>0.9945647716522217</v>
       </c>
     </row>
   </sheetData>
